--- a/Lectures and Assignment 2/problem1.xlsx
+++ b/Lectures and Assignment 2/problem1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\springnuance\Desktop\Business-Analytics-I\Lectures and Assignment 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCA28DC5-6788-4C85-8DC7-6CC502CCB482}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{625065CF-1873-46E5-87FE-67AC7790EB70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -583,7 +583,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -620,10 +620,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -646,15 +643,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -685,17 +673,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -710,13 +694,25 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1413,7 +1409,7 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t> of moving the cars between the neighborhood. The model assumes that all cars are move from area i to area j simultaneously.</a:t>
+                <a:t> of moving the cars between the neighborhood. The model assumes that all cars are move from area i to area j sequentially.</a:t>
               </a:r>
               <a:endParaRPr lang="fi-FI" sz="1100" b="0" i="0">
                 <a:solidFill>
@@ -1562,7 +1558,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -1589,7 +1585,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -1617,7 +1613,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -1630,7 +1626,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -1644,7 +1640,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -1763,7 +1759,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -1776,7 +1772,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -1790,7 +1786,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -1989,7 +1985,7 @@
                         <a:schemeClr val="tx1"/>
                       </a:solidFill>
                       <a:effectLst/>
-                      <a:latin typeface="+mn-lt"/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       <a:ea typeface="+mn-ea"/>
                       <a:cs typeface="+mn-cs"/>
                     </a:rPr>
@@ -2006,7 +2002,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -2022,7 +2018,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -2039,7 +2035,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -2052,7 +2048,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -2066,7 +2062,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -2097,7 +2093,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -2130,7 +2126,7 @@
                                     <a:schemeClr val="tx1"/>
                                   </a:solidFill>
                                   <a:effectLst/>
-                                  <a:latin typeface="+mn-lt"/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                   <a:ea typeface="+mn-ea"/>
                                   <a:cs typeface="+mn-cs"/>
                                 </a:rPr>
@@ -2143,7 +2139,7 @@
                                     <a:schemeClr val="tx1"/>
                                   </a:solidFill>
                                   <a:effectLst/>
-                                  <a:latin typeface="+mn-lt"/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                   <a:ea typeface="+mn-ea"/>
                                   <a:cs typeface="+mn-cs"/>
                                 </a:rPr>
@@ -2185,7 +2181,7 @@
                                     <a:schemeClr val="tx1"/>
                                   </a:solidFill>
                                   <a:effectLst/>
-                                  <a:latin typeface="+mn-lt"/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                   <a:ea typeface="+mn-ea"/>
                                   <a:cs typeface="+mn-cs"/>
                                 </a:rPr>
@@ -2198,7 +2194,7 @@
                                     <a:schemeClr val="tx1"/>
                                   </a:solidFill>
                                   <a:effectLst/>
-                                  <a:latin typeface="+mn-lt"/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                   <a:ea typeface="+mn-ea"/>
                                   <a:cs typeface="+mn-cs"/>
                                 </a:rPr>
@@ -2212,7 +2208,7 @@
                                     <a:schemeClr val="tx1"/>
                                   </a:solidFill>
                                   <a:effectLst/>
-                                  <a:latin typeface="+mn-lt"/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                   <a:ea typeface="+mn-ea"/>
                                   <a:cs typeface="+mn-cs"/>
                                 </a:rPr>
@@ -2285,7 +2281,7 @@
                         <a:schemeClr val="tx1"/>
                       </a:solidFill>
                       <a:effectLst/>
-                      <a:latin typeface="+mn-lt"/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       <a:ea typeface="+mn-ea"/>
                       <a:cs typeface="+mn-cs"/>
                     </a:rPr>
@@ -2297,7 +2293,7 @@
                         <a:schemeClr val="tx1"/>
                       </a:solidFill>
                       <a:effectLst/>
-                      <a:latin typeface="+mn-lt"/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       <a:ea typeface="+mn-ea"/>
                       <a:cs typeface="+mn-cs"/>
                     </a:rPr>
@@ -2309,7 +2305,7 @@
                         <a:schemeClr val="tx1"/>
                       </a:solidFill>
                       <a:effectLst/>
-                      <a:latin typeface="+mn-lt"/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       <a:ea typeface="+mn-ea"/>
                       <a:cs typeface="+mn-cs"/>
                     </a:rPr>
@@ -2321,7 +2317,7 @@
                         <a:schemeClr val="tx1"/>
                       </a:solidFill>
                       <a:effectLst/>
-                      <a:latin typeface="+mn-lt"/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       <a:ea typeface="+mn-ea"/>
                       <a:cs typeface="+mn-cs"/>
                     </a:rPr>
@@ -2416,7 +2412,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -2432,7 +2428,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -2449,7 +2445,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -2462,7 +2458,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -2476,7 +2472,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -2579,7 +2575,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -2595,7 +2591,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -2612,7 +2608,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -2625,7 +2621,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -2639,7 +2635,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -2751,7 +2747,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -2764,7 +2760,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -2778,7 +2774,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -2876,7 +2872,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -2889,7 +2885,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -2903,7 +2899,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -3171,7 +3167,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -3184,7 +3180,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -3198,7 +3194,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -3228,7 +3224,7 @@
                         <a:schemeClr val="tx1"/>
                       </a:solidFill>
                       <a:effectLst/>
-                      <a:latin typeface="+mn-lt"/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       <a:ea typeface="+mn-ea"/>
                       <a:cs typeface="+mn-cs"/>
                     </a:rPr>
@@ -3240,7 +3236,7 @@
                         <a:schemeClr val="tx1"/>
                       </a:solidFill>
                       <a:effectLst/>
-                      <a:latin typeface="+mn-lt"/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       <a:ea typeface="+mn-ea"/>
                       <a:cs typeface="+mn-cs"/>
                     </a:rPr>
@@ -3252,7 +3248,7 @@
                         <a:schemeClr val="tx1"/>
                       </a:solidFill>
                       <a:effectLst/>
-                      <a:latin typeface="+mn-lt"/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       <a:ea typeface="+mn-ea"/>
                       <a:cs typeface="+mn-cs"/>
                     </a:rPr>
@@ -3348,6 +3344,7 @@
               </a:endParaRPr>
             </a:p>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -3362,7 +3359,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -3375,7 +3372,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -3389,7 +3386,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -3458,7 +3455,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -3471,7 +3468,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -3485,7 +3482,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -3515,7 +3512,7 @@
                         <a:schemeClr val="tx1"/>
                       </a:solidFill>
                       <a:effectLst/>
-                      <a:latin typeface="+mn-lt"/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       <a:ea typeface="+mn-ea"/>
                       <a:cs typeface="+mn-cs"/>
                     </a:rPr>
@@ -3539,7 +3536,7 @@
                         <a:schemeClr val="tx1"/>
                       </a:solidFill>
                       <a:effectLst/>
-                      <a:latin typeface="+mn-lt"/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       <a:ea typeface="+mn-ea"/>
                       <a:cs typeface="+mn-cs"/>
                     </a:rPr>
@@ -3599,7 +3596,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -3612,7 +3609,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -3626,7 +3623,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -3668,7 +3665,7 @@
                         <a:schemeClr val="tx1"/>
                       </a:solidFill>
                       <a:effectLst/>
-                      <a:latin typeface="+mn-lt"/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       <a:ea typeface="+mn-ea"/>
                       <a:cs typeface="+mn-cs"/>
                     </a:rPr>
@@ -3692,7 +3689,7 @@
                         <a:schemeClr val="tx1"/>
                       </a:solidFill>
                       <a:effectLst/>
-                      <a:latin typeface="+mn-lt"/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       <a:ea typeface="+mn-ea"/>
                       <a:cs typeface="+mn-cs"/>
                     </a:rPr>
@@ -4374,7 +4371,7 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t> of moving the cars between the neighborhood. The model assumes that all cars are move from area i to area j simultaneously.</a:t>
+                <a:t> of moving the cars between the neighborhood. The model assumes that all cars are move from area i to area j sequentially.</a:t>
               </a:r>
               <a:endParaRPr lang="fi-FI" sz="1100" b="0" i="0">
                 <a:solidFill>
@@ -4409,7 +4406,7 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>min z= ∑10_(𝑖,𝑗)▒〖𝑡</a:t>
+                <a:t>min z= ∑2_(𝑖,𝑗)▒〖𝑡</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
@@ -4417,7 +4414,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -4429,7 +4426,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -4453,7 +4450,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -4465,7 +4462,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -4477,23 +4474,11 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝑖𝑗</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t> 〗, 𝑖</a:t>
+                <a:t>𝑖𝑗 〗, 𝑖</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0">
@@ -4562,7 +4547,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -4574,7 +4559,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -4586,7 +4571,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -4779,7 +4764,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -4791,7 +4776,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -4803,11 +4788,23 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝑖𝑗</a:t>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑖𝑗−∑2_𝑗▒〖𝑥</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>_</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0">
@@ -4819,103 +4816,7 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>−</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>∑2_</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝑗</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>▒〖𝑥</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>_</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝑗𝑖+</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝑐_𝑗</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>=𝑑_𝑗</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> 〗〗, 𝑖≠𝑗</a:t>
+                <a:t>𝑗𝑖+𝑐_𝑗=𝑑_𝑗 〗〗, 𝑖≠𝑗</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
@@ -5006,7 +4907,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -5018,7 +4919,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -5030,7 +4931,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -5120,7 +5021,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -5132,7 +5033,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -5144,23 +5045,11 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝑗𝑖 </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>  </a:t>
+                <a:t>𝑗𝑖   </a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
@@ -5246,7 +5135,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -5336,7 +5225,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -5596,7 +5485,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -5608,7 +5497,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -5620,7 +5509,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -5644,7 +5533,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -5747,13 +5636,14 @@
               </a:endParaRPr>
             </a:p>
             <a:p>
+              <a:pPr/>
               <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -5765,7 +5655,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -5777,7 +5667,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -5837,7 +5727,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -5849,7 +5739,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -5861,7 +5751,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -5885,12 +5775,63 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝑖</a:t>
-              </a:r>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑖=𝑗</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>" </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>"</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>due to the SUMPRODUCT</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> function. Therefore, we add 6 decision variables and add the miscellaneous constraint as</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr algn="ctr"/>
               <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0">
                   <a:solidFill>
@@ -5901,7 +5842,19 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>=</a:t>
+                <a:t>𝑥</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>_</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0">
@@ -5909,11 +5862,11 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝑗</a:t>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑖𝑗=0</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
@@ -5921,146 +5874,23 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> , for all </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>" </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-FI" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>"</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>due to the SUMPRODUCT</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="fi-FI" sz="1100" b="0" i="0" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> function. Therefore, we add 6 decision variables and add the miscellaneous constraint as</a:t>
-              </a:r>
-            </a:p>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝑥</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>_</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝑖𝑗</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>=0</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> , for all </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝑖</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>=</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝑗</a:t>
+                <a:t>𝑖=𝑗</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
@@ -9021,7 +8851,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E44" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="O70" sqref="O70"/>
     </sheetView>
   </sheetViews>
@@ -9096,8 +8926,6 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-      <c r="P19" s="38"/>
-      <c r="Q19" s="38"/>
       <c r="R19" s="2"/>
     </row>
     <row r="20" spans="9:18" x14ac:dyDescent="0.3">
@@ -9125,7 +8953,6 @@
       <c r="P20" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="Q20" s="38"/>
       <c r="R20" s="2"/>
     </row>
     <row r="21" spans="9:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -9150,23 +8977,13 @@
       <c r="O21" s="5">
         <v>10</v>
       </c>
-      <c r="P21" s="38">
+      <c r="P21">
         <f>SUM(J21:O21)</f>
         <v>140</v>
       </c>
-      <c r="Q21" s="38"/>
       <c r="R21" s="2"/>
     </row>
     <row r="22" spans="9:18" x14ac:dyDescent="0.3">
-      <c r="I22" s="38"/>
-      <c r="J22" s="38"/>
-      <c r="K22" s="38"/>
-      <c r="L22" s="38"/>
-      <c r="M22" s="38"/>
-      <c r="N22" s="38"/>
-      <c r="O22" s="38"/>
-      <c r="P22" s="38"/>
-      <c r="Q22" s="38"/>
       <c r="R22" s="2"/>
     </row>
     <row r="23" spans="9:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -9179,50 +8996,44 @@
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
       <c r="O23" s="3"/>
-      <c r="P23" s="38"/>
-      <c r="Q23" s="38"/>
       <c r="R23" s="2"/>
     </row>
     <row r="24" spans="9:18" x14ac:dyDescent="0.3">
-      <c r="I24" s="21"/>
-      <c r="J24" s="24" t="s">
+      <c r="I24" s="20"/>
+      <c r="J24" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="K24" s="25"/>
-      <c r="L24" s="25"/>
-      <c r="M24" s="25"/>
-      <c r="N24" s="25"/>
-      <c r="O24" s="26"/>
-      <c r="P24" s="38"/>
-      <c r="Q24" s="38"/>
+      <c r="K24" s="44"/>
+      <c r="L24" s="44"/>
+      <c r="M24" s="44"/>
+      <c r="N24" s="44"/>
+      <c r="O24" s="45"/>
     </row>
     <row r="25" spans="9:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I25" s="23" t="s">
+      <c r="I25" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="J25" s="27" t="s">
+      <c r="J25" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="K25" s="28" t="s">
+      <c r="K25" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="L25" s="28" t="s">
+      <c r="L25" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="M25" s="28" t="s">
+      <c r="M25" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="N25" s="28" t="s">
+      <c r="N25" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="O25" s="29" t="s">
+      <c r="O25" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="P25" s="38"/>
-      <c r="Q25" s="38"/>
     </row>
     <row r="26" spans="9:18" x14ac:dyDescent="0.3">
-      <c r="I26" s="30" t="s">
+      <c r="I26" s="26" t="s">
         <v>2</v>
       </c>
       <c r="J26" s="8" t="s">
@@ -9243,11 +9054,9 @@
       <c r="O26" s="9">
         <v>32</v>
       </c>
-      <c r="P26" s="38"/>
-      <c r="Q26" s="38"/>
     </row>
     <row r="27" spans="9:18" x14ac:dyDescent="0.3">
-      <c r="I27" s="22" t="s">
+      <c r="I27" s="21" t="s">
         <v>3</v>
       </c>
       <c r="J27" s="8">
@@ -9268,11 +9077,9 @@
       <c r="O27" s="9">
         <v>26</v>
       </c>
-      <c r="P27" s="38"/>
-      <c r="Q27" s="38"/>
     </row>
     <row r="28" spans="9:18" x14ac:dyDescent="0.3">
-      <c r="I28" s="22" t="s">
+      <c r="I28" s="21" t="s">
         <v>4</v>
       </c>
       <c r="J28" s="8">
@@ -9293,11 +9100,9 @@
       <c r="O28" s="9">
         <v>16</v>
       </c>
-      <c r="P28" s="38"/>
-      <c r="Q28" s="38"/>
     </row>
     <row r="29" spans="9:18" x14ac:dyDescent="0.3">
-      <c r="I29" s="22" t="s">
+      <c r="I29" s="21" t="s">
         <v>5</v>
       </c>
       <c r="J29" s="8">
@@ -9318,11 +9123,9 @@
       <c r="O29" s="9">
         <v>25</v>
       </c>
-      <c r="P29" s="38"/>
-      <c r="Q29" s="38"/>
     </row>
     <row r="30" spans="9:18" x14ac:dyDescent="0.3">
-      <c r="I30" s="22" t="s">
+      <c r="I30" s="21" t="s">
         <v>6</v>
       </c>
       <c r="J30" s="8">
@@ -9343,11 +9146,9 @@
       <c r="O30" s="9">
         <v>17</v>
       </c>
-      <c r="P30" s="38"/>
-      <c r="Q30" s="38"/>
     </row>
     <row r="31" spans="9:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I31" s="23" t="s">
+      <c r="I31" s="22" t="s">
         <v>7</v>
       </c>
       <c r="J31" s="4">
@@ -9368,21 +9169,8 @@
       <c r="O31" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="P31" s="38"/>
-      <c r="Q31" s="38"/>
     </row>
-    <row r="32" spans="9:18" x14ac:dyDescent="0.3">
-      <c r="I32" s="38"/>
-      <c r="J32" s="38"/>
-      <c r="K32" s="38"/>
-      <c r="L32" s="38"/>
-      <c r="M32" s="38"/>
-      <c r="N32" s="38"/>
-      <c r="O32" s="38"/>
-      <c r="P32" s="38"/>
-      <c r="Q32" s="38"/>
-    </row>
-    <row r="33" spans="9:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="9:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I33" s="3" t="s">
         <v>12</v>
       </c>
@@ -9392,10 +9180,8 @@
       <c r="M33" s="3"/>
       <c r="N33" s="3"/>
       <c r="O33" s="3"/>
-      <c r="P33" s="38"/>
-      <c r="Q33" s="38"/>
     </row>
-    <row r="34" spans="9:17" x14ac:dyDescent="0.3">
+    <row r="34" spans="9:16" x14ac:dyDescent="0.3">
       <c r="I34" s="6" t="s">
         <v>9</v>
       </c>
@@ -9420,9 +9206,8 @@
       <c r="P34" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="Q34" s="38"/>
     </row>
-    <row r="35" spans="9:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="9:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I35" s="7" t="s">
         <v>13</v>
       </c>
@@ -9444,734 +9229,596 @@
       <c r="O35" s="5">
         <v>25</v>
       </c>
-      <c r="P35" s="38">
+      <c r="P35">
         <f>SUM(J35:O35)</f>
         <v>140</v>
       </c>
-      <c r="Q35" s="38"/>
     </row>
-    <row r="36" spans="9:17" x14ac:dyDescent="0.3">
-      <c r="I36" s="38"/>
-      <c r="J36" s="38"/>
-      <c r="K36" s="38"/>
-      <c r="L36" s="38"/>
-      <c r="M36" s="38"/>
-      <c r="N36" s="38"/>
-      <c r="O36" s="38"/>
-      <c r="P36" s="38"/>
-      <c r="Q36" s="38"/>
+    <row r="38" spans="9:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="39" spans="9:16" x14ac:dyDescent="0.3">
+      <c r="I39" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="J39" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="K39" s="44"/>
+      <c r="L39" s="44"/>
+      <c r="M39" s="44"/>
+      <c r="N39" s="44"/>
+      <c r="O39" s="45"/>
     </row>
-    <row r="37" spans="9:17" x14ac:dyDescent="0.3">
-      <c r="I37" s="38"/>
-      <c r="J37" s="38"/>
-      <c r="K37" s="38"/>
-      <c r="L37" s="38"/>
-      <c r="M37" s="38"/>
-      <c r="N37" s="38"/>
-      <c r="O37" s="38"/>
-      <c r="P37" s="38"/>
-      <c r="Q37" s="38"/>
+    <row r="40" spans="9:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I40" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="J40" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="K40" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="L40" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="M40" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="N40" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="O40" s="25" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="38" spans="9:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I38" s="38"/>
-      <c r="J38" s="38"/>
-      <c r="K38" s="38"/>
-      <c r="L38" s="38"/>
-      <c r="M38" s="38"/>
-      <c r="N38" s="38"/>
-      <c r="O38" s="38"/>
-      <c r="P38" s="38"/>
-      <c r="Q38" s="38"/>
+    <row r="41" spans="9:16" x14ac:dyDescent="0.3">
+      <c r="I41" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="J41" s="27">
+        <v>0</v>
+      </c>
+      <c r="K41" s="27">
+        <v>20</v>
+      </c>
+      <c r="L41" s="27">
+        <v>28</v>
+      </c>
+      <c r="M41" s="27">
+        <v>29</v>
+      </c>
+      <c r="N41" s="27">
+        <v>17</v>
+      </c>
+      <c r="O41" s="28">
+        <v>32</v>
+      </c>
     </row>
-    <row r="39" spans="9:17" x14ac:dyDescent="0.3">
-      <c r="I39" s="47" t="s">
-        <v>21</v>
-      </c>
-      <c r="J39" s="24" t="s">
+    <row r="42" spans="9:16" x14ac:dyDescent="0.3">
+      <c r="I42" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="J42" s="27">
+        <v>23</v>
+      </c>
+      <c r="K42" s="27">
         <v>0</v>
       </c>
-      <c r="K39" s="25"/>
-      <c r="L39" s="25"/>
-      <c r="M39" s="25"/>
-      <c r="N39" s="25"/>
-      <c r="O39" s="26"/>
-      <c r="P39" s="38"/>
-      <c r="Q39" s="38"/>
+      <c r="L42" s="27">
+        <v>17</v>
+      </c>
+      <c r="M42" s="27">
+        <v>31</v>
+      </c>
+      <c r="N42" s="27">
+        <v>28</v>
+      </c>
+      <c r="O42" s="28">
+        <v>26</v>
+      </c>
     </row>
-    <row r="40" spans="9:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I40" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="J40" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="K40" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="L40" s="28" t="s">
+    <row r="43" spans="9:16" x14ac:dyDescent="0.3">
+      <c r="I43" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="M40" s="28" t="s">
+      <c r="J43" s="27">
+        <v>23</v>
+      </c>
+      <c r="K43" s="27">
+        <v>17</v>
+      </c>
+      <c r="L43" s="27">
+        <v>0</v>
+      </c>
+      <c r="M43" s="27">
+        <v>20</v>
+      </c>
+      <c r="N43" s="27">
+        <v>29</v>
+      </c>
+      <c r="O43" s="28">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="9:16" x14ac:dyDescent="0.3">
+      <c r="I44" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="N40" s="28" t="s">
+      <c r="J44" s="27">
+        <v>14</v>
+      </c>
+      <c r="K44" s="27">
+        <v>26</v>
+      </c>
+      <c r="L44" s="27">
+        <v>23</v>
+      </c>
+      <c r="M44" s="27">
+        <v>0</v>
+      </c>
+      <c r="N44" s="27">
+        <v>20</v>
+      </c>
+      <c r="O44" s="28">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="45" spans="9:16" x14ac:dyDescent="0.3">
+      <c r="I45" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="O40" s="29" t="s">
+      <c r="J45" s="27">
+        <v>19</v>
+      </c>
+      <c r="K45" s="27">
+        <v>34</v>
+      </c>
+      <c r="L45" s="27">
+        <v>26</v>
+      </c>
+      <c r="M45" s="27">
+        <v>14</v>
+      </c>
+      <c r="N45" s="27">
+        <v>0</v>
+      </c>
+      <c r="O45" s="28">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46" spans="9:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I46" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="P40" s="38"/>
-      <c r="Q40" s="38"/>
+      <c r="J46" s="29">
+        <v>38</v>
+      </c>
+      <c r="K46" s="29">
+        <v>20</v>
+      </c>
+      <c r="L46" s="29">
+        <v>16</v>
+      </c>
+      <c r="M46" s="29">
+        <v>28</v>
+      </c>
+      <c r="N46" s="29">
+        <v>25</v>
+      </c>
+      <c r="O46" s="30">
+        <v>0</v>
+      </c>
     </row>
-    <row r="41" spans="9:17" x14ac:dyDescent="0.3">
-      <c r="I41" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="J41" s="31">
-        <v>0</v>
-      </c>
-      <c r="K41" s="31">
+    <row r="47" spans="9:16" x14ac:dyDescent="0.3">
+      <c r="P47" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="L41" s="31">
-        <v>28</v>
-      </c>
-      <c r="M41" s="31">
-        <v>29</v>
-      </c>
-      <c r="N41" s="31">
-        <v>17</v>
-      </c>
-      <c r="O41" s="32">
-        <v>32</v>
-      </c>
-      <c r="P41" s="38"/>
-      <c r="Q41" s="38"/>
     </row>
-    <row r="42" spans="9:17" x14ac:dyDescent="0.3">
-      <c r="I42" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="J42" s="31">
-        <v>23</v>
-      </c>
-      <c r="K42" s="31">
-        <v>0</v>
-      </c>
-      <c r="L42" s="31">
-        <v>17</v>
-      </c>
-      <c r="M42" s="31">
-        <v>31</v>
-      </c>
-      <c r="N42" s="31">
-        <v>28</v>
-      </c>
-      <c r="O42" s="32">
-        <v>26</v>
-      </c>
-      <c r="P42" s="38"/>
-      <c r="Q42" s="38"/>
-    </row>
-    <row r="43" spans="9:17" x14ac:dyDescent="0.3">
-      <c r="I43" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="J43" s="31">
-        <v>23</v>
-      </c>
-      <c r="K43" s="31">
-        <v>17</v>
-      </c>
-      <c r="L43" s="31">
-        <v>0</v>
-      </c>
-      <c r="M43" s="31">
-        <v>20</v>
-      </c>
-      <c r="N43" s="31">
-        <v>29</v>
-      </c>
-      <c r="O43" s="32">
-        <v>16</v>
-      </c>
-      <c r="P43" s="38"/>
-      <c r="Q43" s="38"/>
-    </row>
-    <row r="44" spans="9:17" x14ac:dyDescent="0.3">
-      <c r="I44" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="J44" s="31">
-        <v>14</v>
-      </c>
-      <c r="K44" s="31">
-        <v>26</v>
-      </c>
-      <c r="L44" s="31">
-        <v>23</v>
-      </c>
-      <c r="M44" s="31">
-        <v>0</v>
-      </c>
-      <c r="N44" s="31">
-        <v>20</v>
-      </c>
-      <c r="O44" s="32">
-        <v>25</v>
-      </c>
-      <c r="P44" s="38"/>
-      <c r="Q44" s="38"/>
-    </row>
-    <row r="45" spans="9:17" x14ac:dyDescent="0.3">
-      <c r="I45" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="J45" s="31">
-        <v>19</v>
-      </c>
-      <c r="K45" s="31">
-        <v>34</v>
-      </c>
-      <c r="L45" s="31">
-        <v>26</v>
-      </c>
-      <c r="M45" s="31">
-        <v>14</v>
-      </c>
-      <c r="N45" s="31">
-        <v>0</v>
-      </c>
-      <c r="O45" s="32">
-        <v>17</v>
-      </c>
-      <c r="P45" s="38"/>
-      <c r="Q45" s="38"/>
-    </row>
-    <row r="46" spans="9:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I46" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="J46" s="33">
-        <v>38</v>
-      </c>
-      <c r="K46" s="33">
-        <v>20</v>
-      </c>
-      <c r="L46" s="33">
-        <v>16</v>
-      </c>
-      <c r="M46" s="33">
-        <v>28</v>
-      </c>
-      <c r="N46" s="33">
-        <v>25</v>
-      </c>
-      <c r="O46" s="34">
-        <v>0</v>
-      </c>
-      <c r="P46" s="38"/>
-      <c r="Q46" s="38"/>
-    </row>
-    <row r="47" spans="9:17" x14ac:dyDescent="0.3">
-      <c r="I47" s="38"/>
-      <c r="J47" s="38"/>
-      <c r="K47" s="38"/>
-      <c r="L47" s="38"/>
-      <c r="M47" s="38"/>
-      <c r="N47" s="38"/>
-      <c r="O47" s="38"/>
-      <c r="P47" s="45" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q47" s="38"/>
-    </row>
-    <row r="48" spans="9:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I48" s="38"/>
-      <c r="J48" s="38"/>
-      <c r="K48" s="38"/>
-      <c r="L48" s="38"/>
-      <c r="M48" s="38"/>
-      <c r="N48" s="38"/>
-      <c r="O48" s="38"/>
-      <c r="P48" s="36">
+    <row r="48" spans="9:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="P48" s="32">
         <f>SUMPRODUCT(J41:O46,J52:O57)</f>
         <v>451</v>
       </c>
-      <c r="Q48" s="38"/>
     </row>
-    <row r="49" spans="9:17" x14ac:dyDescent="0.3">
-      <c r="I49" s="38"/>
-      <c r="J49" s="38"/>
-      <c r="K49" s="38"/>
-      <c r="L49" s="38"/>
-      <c r="M49" s="38"/>
-      <c r="N49" s="38"/>
-      <c r="O49" s="38"/>
-      <c r="P49" s="38"/>
-      <c r="Q49" s="38"/>
+    <row r="50" spans="9:16" x14ac:dyDescent="0.3">
+      <c r="I50" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="J50" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="K50" s="42"/>
+      <c r="L50" s="42"/>
+      <c r="M50" s="42"/>
+      <c r="N50" s="42"/>
+      <c r="O50" s="42"/>
     </row>
-    <row r="50" spans="9:17" x14ac:dyDescent="0.3">
-      <c r="I50" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="J50" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="K50" s="16"/>
-      <c r="L50" s="16"/>
-      <c r="M50" s="16"/>
-      <c r="N50" s="16"/>
-      <c r="O50" s="16"/>
-      <c r="P50" s="38"/>
-      <c r="Q50" s="38"/>
+    <row r="51" spans="9:16" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I51" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="J51" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="K51" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="L51" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="M51" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="N51" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="O51" s="19" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="51" spans="9:17" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I51" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="J51" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="K51" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="L51" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="M51" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="N51" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="O51" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="P51" s="38"/>
-      <c r="Q51" s="38"/>
-    </row>
-    <row r="52" spans="9:17" x14ac:dyDescent="0.3">
+    <row r="52" spans="9:16" x14ac:dyDescent="0.3">
       <c r="I52" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="J52" s="18">
+      <c r="J52" s="17">
         <v>0</v>
       </c>
-      <c r="K52" s="17">
+      <c r="K52" s="16">
         <v>0</v>
       </c>
-      <c r="L52" s="17">
+      <c r="L52" s="16">
         <v>0</v>
       </c>
-      <c r="M52" s="17">
+      <c r="M52" s="16">
         <v>0</v>
       </c>
-      <c r="N52" s="17">
+      <c r="N52" s="16">
         <v>0</v>
       </c>
-      <c r="O52" s="17">
+      <c r="O52" s="16">
         <v>0</v>
       </c>
-      <c r="P52" s="38"/>
-      <c r="Q52" s="38"/>
     </row>
-    <row r="53" spans="9:17" x14ac:dyDescent="0.3">
+    <row r="53" spans="9:16" x14ac:dyDescent="0.3">
       <c r="I53" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="J53" s="18">
+      <c r="J53" s="17">
         <v>0</v>
       </c>
-      <c r="K53" s="17">
+      <c r="K53" s="16">
         <v>0</v>
       </c>
-      <c r="L53" s="17">
+      <c r="L53" s="16">
         <v>0</v>
       </c>
-      <c r="M53" s="17">
+      <c r="M53" s="16">
         <v>0</v>
       </c>
-      <c r="N53" s="17">
+      <c r="N53" s="16">
         <v>0</v>
       </c>
-      <c r="O53" s="17">
+      <c r="O53" s="16">
         <v>0</v>
       </c>
-      <c r="P53" s="38"/>
-      <c r="Q53" s="38"/>
     </row>
-    <row r="54" spans="9:17" x14ac:dyDescent="0.3">
+    <row r="54" spans="9:16" x14ac:dyDescent="0.3">
       <c r="I54" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="J54" s="18">
+      <c r="J54" s="17">
         <v>0</v>
       </c>
-      <c r="K54" s="17">
+      <c r="K54" s="16">
         <v>0</v>
       </c>
-      <c r="L54" s="17">
+      <c r="L54" s="16">
         <v>0</v>
       </c>
-      <c r="M54" s="17">
+      <c r="M54" s="16">
         <v>0</v>
       </c>
-      <c r="N54" s="17">
+      <c r="N54" s="16">
         <v>0</v>
       </c>
-      <c r="O54" s="17">
+      <c r="O54" s="16">
         <v>0</v>
       </c>
-      <c r="P54" s="38"/>
-      <c r="Q54" s="38"/>
     </row>
-    <row r="55" spans="9:17" x14ac:dyDescent="0.3">
+    <row r="55" spans="9:16" x14ac:dyDescent="0.3">
       <c r="I55" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="J55" s="18">
+      <c r="J55" s="17">
         <v>0</v>
       </c>
-      <c r="K55" s="17">
+      <c r="K55" s="16">
         <v>0</v>
       </c>
-      <c r="L55" s="17">
+      <c r="L55" s="16">
         <v>0</v>
       </c>
-      <c r="M55" s="17">
+      <c r="M55" s="16">
         <v>0</v>
       </c>
-      <c r="N55" s="17">
+      <c r="N55" s="16">
         <v>0</v>
       </c>
-      <c r="O55" s="17">
+      <c r="O55" s="16">
         <v>0</v>
       </c>
-      <c r="P55" s="38"/>
-      <c r="Q55" s="38"/>
     </row>
-    <row r="56" spans="9:17" x14ac:dyDescent="0.3">
+    <row r="56" spans="9:16" x14ac:dyDescent="0.3">
       <c r="I56" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="J56" s="18">
+      <c r="J56" s="17">
         <v>5</v>
       </c>
-      <c r="K56" s="17">
+      <c r="K56" s="16">
         <v>0</v>
       </c>
-      <c r="L56" s="17">
+      <c r="L56" s="16">
         <v>0</v>
       </c>
-      <c r="M56" s="17">
+      <c r="M56" s="16">
         <v>0</v>
       </c>
-      <c r="N56" s="17">
+      <c r="N56" s="16">
         <v>0</v>
       </c>
-      <c r="O56" s="17">
+      <c r="O56" s="16">
         <v>0</v>
       </c>
-      <c r="P56" s="38"/>
-      <c r="Q56" s="38"/>
     </row>
-    <row r="57" spans="9:17" x14ac:dyDescent="0.3">
+    <row r="57" spans="9:16" x14ac:dyDescent="0.3">
       <c r="I57" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="J57" s="18">
+      <c r="J57" s="17">
         <v>0</v>
       </c>
-      <c r="K57" s="17">
+      <c r="K57" s="16">
         <v>8</v>
       </c>
-      <c r="L57" s="17">
+      <c r="L57" s="16">
         <v>0</v>
       </c>
-      <c r="M57" s="17">
+      <c r="M57" s="16">
         <v>7</v>
       </c>
-      <c r="N57" s="17">
+      <c r="N57" s="16">
         <v>0</v>
       </c>
-      <c r="O57" s="17">
+      <c r="O57" s="16">
         <v>0</v>
       </c>
-      <c r="P57" s="38"/>
-      <c r="Q57" s="38"/>
     </row>
-    <row r="58" spans="9:17" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I58" s="42" t="s">
+    <row r="58" spans="9:16" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I58" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="J58" s="37">
+      <c r="J58" s="33">
         <f>SUM(J52:J57)</f>
         <v>5</v>
       </c>
-      <c r="K58" s="37">
+      <c r="K58" s="33">
         <f t="shared" ref="K58:O58" si="0">SUM(K52:K57)</f>
         <v>8</v>
       </c>
-      <c r="L58" s="37">
+      <c r="L58" s="33">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M58" s="37">
+      <c r="M58" s="33">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="N58" s="37">
+      <c r="N58" s="33">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O58" s="37">
+      <c r="O58" s="33">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P58" s="46"/>
-      <c r="Q58" s="38"/>
+      <c r="P58" s="40"/>
     </row>
-    <row r="59" spans="9:17" x14ac:dyDescent="0.3">
-      <c r="I59" s="38"/>
-      <c r="J59" s="39" t="s">
+    <row r="59" spans="9:16" x14ac:dyDescent="0.3">
+      <c r="J59" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K59" s="39" t="s">
+      <c r="K59" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="L59" s="39" t="s">
+      <c r="L59" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="M59" s="39" t="s">
+      <c r="M59" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="N59" s="39" t="s">
+      <c r="N59" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="O59" s="39" t="s">
+      <c r="O59" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="P59" s="46"/>
-      <c r="Q59" s="38"/>
+      <c r="P59" s="40"/>
     </row>
-    <row r="60" spans="9:17" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="I60" s="43" t="s">
+    <row r="60" spans="9:16" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="I60" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="J60" s="37">
+      <c r="J60" s="33">
         <f>SUM(J52:O52)</f>
         <v>0</v>
       </c>
-      <c r="K60" s="37">
+      <c r="K60" s="33">
         <f>SUM(J53:O53)</f>
         <v>0</v>
       </c>
-      <c r="L60" s="37">
+      <c r="L60" s="33">
         <f>SUM(J54:O54)</f>
         <v>0</v>
       </c>
-      <c r="M60" s="37">
+      <c r="M60" s="33">
         <f>SUM(J55:O55)</f>
         <v>0</v>
       </c>
-      <c r="N60" s="37">
+      <c r="N60" s="33">
         <f>SUM(J56:O56)</f>
         <v>5</v>
       </c>
-      <c r="O60" s="37">
+      <c r="O60" s="33">
         <f>SUM(J57:O57)</f>
         <v>15</v>
       </c>
-      <c r="P60" s="38"/>
-      <c r="Q60" s="38"/>
     </row>
-    <row r="61" spans="9:17" x14ac:dyDescent="0.3">
-      <c r="I61" s="38"/>
-      <c r="J61" s="39" t="s">
+    <row r="61" spans="9:16" x14ac:dyDescent="0.3">
+      <c r="J61" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="K61" s="39" t="s">
+      <c r="K61" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="L61" s="39" t="s">
+      <c r="L61" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="M61" s="39" t="s">
+      <c r="M61" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="N61" s="39" t="s">
+      <c r="N61" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="O61" s="39" t="s">
+      <c r="O61" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="P61" s="38"/>
-      <c r="Q61" s="38"/>
     </row>
-    <row r="62" spans="9:17" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="I62" s="44" t="s">
+    <row r="62" spans="9:16" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="I62" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="J62" s="35">
+      <c r="J62" s="31">
         <v>20</v>
       </c>
-      <c r="K62" s="35">
+      <c r="K62" s="31">
         <v>27</v>
       </c>
-      <c r="L62" s="35">
+      <c r="L62" s="31">
         <v>15</v>
       </c>
-      <c r="M62" s="35">
+      <c r="M62" s="31">
         <v>28</v>
       </c>
-      <c r="N62" s="35">
+      <c r="N62" s="31">
         <v>25</v>
       </c>
-      <c r="O62" s="35">
+      <c r="O62" s="31">
         <v>25</v>
       </c>
-      <c r="P62" s="38"/>
-      <c r="Q62" s="38"/>
     </row>
-    <row r="63" spans="9:17" x14ac:dyDescent="0.3">
-      <c r="I63" s="38"/>
-      <c r="J63" s="39" t="s">
+    <row r="63" spans="9:16" x14ac:dyDescent="0.3">
+      <c r="J63" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="K63" s="39" t="s">
+      <c r="K63" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="L63" s="39" t="s">
+      <c r="L63" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="M63" s="39" t="s">
+      <c r="M63" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="N63" s="39" t="s">
+      <c r="N63" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="O63" s="39" t="s">
+      <c r="O63" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="P63" s="38"/>
-      <c r="Q63" s="38"/>
     </row>
-    <row r="64" spans="9:17" x14ac:dyDescent="0.3">
-      <c r="I64" s="40" t="s">
+    <row r="64" spans="9:16" x14ac:dyDescent="0.3">
+      <c r="I64" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="J64" s="41">
+      <c r="J64" s="35">
         <f xml:space="preserve"> J58 - J60 + J62</f>
         <v>25</v>
       </c>
-      <c r="K64" s="41">
+      <c r="K64" s="35">
         <f xml:space="preserve"> K58 - K60 + K62</f>
         <v>35</v>
       </c>
-      <c r="L64" s="41">
-        <f t="shared" ref="K64:O64" si="1" xml:space="preserve"> L58 - L60 + L62</f>
+      <c r="L64" s="35">
+        <f t="shared" ref="L64:O64" si="1" xml:space="preserve"> L58 - L60 + L62</f>
         <v>15</v>
       </c>
-      <c r="M64" s="41">
+      <c r="M64" s="35">
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="N64" s="41">
+      <c r="N64" s="35">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="O64" s="41">
+      <c r="O64" s="35">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="P64" s="38"/>
-      <c r="Q64" s="38"/>
     </row>
-    <row r="65" spans="9:17" x14ac:dyDescent="0.3">
-      <c r="I65" s="38"/>
-      <c r="J65" s="39" t="s">
+    <row r="65" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="J65" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="K65" s="39" t="s">
+      <c r="K65" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="L65" s="39" t="s">
+      <c r="L65" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="M65" s="39" t="s">
+      <c r="M65" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="N65" s="39" t="s">
+      <c r="N65" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="O65" s="39" t="s">
+      <c r="O65" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="P65" s="38"/>
-      <c r="Q65" s="38"/>
     </row>
-    <row r="66" spans="9:17" x14ac:dyDescent="0.3">
-      <c r="I66" s="44" t="s">
+    <row r="66" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I66" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="J66" s="35">
+      <c r="J66" s="31">
         <v>25</v>
       </c>
-      <c r="K66" s="35">
+      <c r="K66" s="31">
         <v>35</v>
       </c>
-      <c r="L66" s="35">
+      <c r="L66" s="31">
         <v>15</v>
       </c>
-      <c r="M66" s="35">
+      <c r="M66" s="31">
         <v>35</v>
       </c>
-      <c r="N66" s="35">
+      <c r="N66" s="31">
         <v>20</v>
       </c>
-      <c r="O66" s="35">
+      <c r="O66" s="31">
         <v>10</v>
       </c>
-      <c r="P66" s="38"/>
-      <c r="Q66" s="38"/>
     </row>
-    <row r="67" spans="9:17" x14ac:dyDescent="0.3">
-      <c r="I67" s="38"/>
-      <c r="J67" s="38"/>
-      <c r="K67" s="38"/>
-      <c r="L67" s="38"/>
-      <c r="M67" s="38"/>
-      <c r="N67" s="38"/>
-      <c r="O67" s="38"/>
-      <c r="P67" s="38"/>
-      <c r="Q67" s="38"/>
+    <row r="68" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I68" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="68" spans="9:17" x14ac:dyDescent="0.3">
-      <c r="I68" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="J68" s="38"/>
-      <c r="K68" s="38"/>
-      <c r="L68" s="38"/>
-      <c r="M68" s="38"/>
-      <c r="N68" s="38"/>
-      <c r="O68" s="38"/>
-      <c r="P68" s="38"/>
-      <c r="Q68" s="38"/>
-    </row>
-    <row r="69" spans="9:17" x14ac:dyDescent="0.3">
-      <c r="I69" s="48" t="s">
+    <row r="69" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I69" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="J69" s="48"/>
-      <c r="K69" s="38"/>
-      <c r="L69" s="38"/>
-      <c r="M69" s="38"/>
-      <c r="N69" s="38"/>
-      <c r="O69" s="38"/>
-      <c r="P69" s="38"/>
-      <c r="Q69" s="38"/>
+      <c r="J69" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="4">
